--- a/outputs-r202/test-o__Actinomycetales.xlsx
+++ b/outputs-r202/test-o__Actinomycetales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Row</t>
   </si>
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -104,14 +104,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,212 +148,212 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.42360579298329687</v>
+        <v>0.20451163550693072</v>
       </c>
       <c r="C2">
-        <v>2.6675208514830924e-14</v>
+        <v>4.9377107321211239e-14</v>
       </c>
       <c r="D2">
-        <v>2.6675208514830924e-14</v>
+        <v>4.9377107321211233e-14</v>
       </c>
       <c r="E2">
-        <v>0.56973996176094222</v>
+        <v>0.71837729870810785</v>
       </c>
       <c r="F2">
-        <v>6.1975814727133867e-06</v>
+        <v>0.0001597894256212375</v>
       </c>
       <c r="G2">
-        <v>3.6040690787406115e-08</v>
+        <v>5.0534675377794389e-07</v>
       </c>
       <c r="H2">
-        <v>6.6267761653876951e-06</v>
+        <v>0.00023755868487367914</v>
       </c>
       <c r="I2">
-        <v>2.3729582623628478e-09</v>
+        <v>3.4898963911790838e-08</v>
       </c>
       <c r="J2">
-        <v>4.1240245535306596e-11</v>
+        <v>4.181699682180948e-10</v>
       </c>
       <c r="K2">
-        <v>2.6675208514830785e-14</v>
+        <v>4.9377107321211239e-14</v>
       </c>
       <c r="L2">
-        <v>2.6675208514830785e-14</v>
+        <v>4.9377107321211246e-14</v>
       </c>
       <c r="M2">
-        <v>2.6675208514830785e-14</v>
+        <v>4.9377107321211214e-14</v>
       </c>
       <c r="N2">
-        <v>3.4593780391790944e-09</v>
+        <v>4.8871962518133088e-08</v>
       </c>
       <c r="O2">
-        <v>0.0066413789836954028</v>
+        <v>0.076713128138320152</v>
       </c>
       <c r="P2">
-        <v>2.6675208514830851e-14</v>
+        <v>4.9377107321211277e-14</v>
       </c>
       <c r="Q2">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2082426512797882e-07</v>
+        <v>1.2291368325093626e-06</v>
       </c>
       <c r="C3">
-        <v>2.2204155941426121e-14</v>
+        <v>2.2202795226912262e-14</v>
       </c>
       <c r="D3">
-        <v>2.2204155941426121e-14</v>
+        <v>2.2202795226912262e-14</v>
       </c>
       <c r="E3">
-        <v>0.99971217746111596</v>
+        <v>0.9988502542958545</v>
       </c>
       <c r="F3">
-        <v>7.0420964243970603e-08</v>
+        <v>7.5788560603495589e-09</v>
       </c>
       <c r="G3">
-        <v>2.3336550884401479e-05</v>
+        <v>8.6417759885019257e-05</v>
       </c>
       <c r="H3">
-        <v>2.0125132212835945e-06</v>
+        <v>1.4011372468534262e-06</v>
       </c>
       <c r="I3">
-        <v>0.00025388395733726729</v>
+        <v>0.0010486084510925651</v>
       </c>
       <c r="J3">
-        <v>2.9970781113321021e-06</v>
+        <v>8.4528452174812297e-06</v>
       </c>
       <c r="K3">
-        <v>2.2204155941426121e-14</v>
+        <v>2.2202795226912262e-14</v>
       </c>
       <c r="L3">
-        <v>2.2204155941426121e-14</v>
+        <v>2.2202795226912262e-14</v>
       </c>
       <c r="M3">
-        <v>2.2204155941426121e-14</v>
+        <v>2.2202795226912262e-14</v>
       </c>
       <c r="N3">
-        <v>5.1860320615712976e-06</v>
+        <v>3.4016308068203517e-06</v>
       </c>
       <c r="O3">
-        <v>1.1497488816070933e-07</v>
+        <v>2.2600985403361209e-07</v>
       </c>
       <c r="P3">
-        <v>1.8703977569365163e-10</v>
+        <v>1.1542430668326394e-09</v>
       </c>
       <c r="Q3">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2189317837465933e-06</v>
+        <v>1.703417930733365e-06</v>
       </c>
       <c r="C4">
-        <v>2.2200649403103798e-14</v>
+        <v>2.2200561104436036e-14</v>
       </c>
       <c r="D4">
-        <v>2.2200649403103798e-14</v>
+        <v>2.2200561104436036e-14</v>
       </c>
       <c r="E4">
-        <v>0.99075740171918458</v>
+        <v>0.98356201052710279</v>
       </c>
       <c r="F4">
-        <v>2.4172080693821439e-05</v>
+        <v>6.7491046457076208e-06</v>
       </c>
       <c r="G4">
-        <v>2.3407570764266038e-05</v>
+        <v>2.524918468564212e-05</v>
       </c>
       <c r="H4">
-        <v>8.9189915524883834e-08</v>
+        <v>2.1706748489144748e-08</v>
       </c>
       <c r="I4">
-        <v>0.0091704851360073451</v>
+        <v>0.016401747821144171</v>
       </c>
       <c r="J4">
-        <v>1.0861130573437008e-13</v>
+        <v>4.0612082869388534e-14</v>
       </c>
       <c r="K4">
-        <v>2.2200649403103798e-14</v>
+        <v>2.2200561104436036e-14</v>
       </c>
       <c r="L4">
-        <v>2.2200649403103798e-14</v>
+        <v>2.2200561104436036e-14</v>
       </c>
       <c r="M4">
-        <v>2.2200649403103798e-14</v>
+        <v>2.2200561104436036e-14</v>
       </c>
       <c r="N4">
-        <v>2.8029175044578237e-09</v>
+        <v>2.288443840537323e-09</v>
       </c>
       <c r="O4">
-        <v>2.2197507471919654e-05</v>
+        <v>2.4455144134193777e-06</v>
       </c>
       <c r="P4">
-        <v>2.5061041769023967e-08</v>
+        <v>7.0434733666999952e-08</v>
       </c>
       <c r="Q4">
         <v>4</v>
